--- a/data/factors/factor10.xlsx
+++ b/data/factors/factor10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0803\data\factors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0808\data\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1486AE-1830-4008-8497-117E2062EAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E9D1E3-05D2-485A-B72B-48C05257E785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A3CC5D5D-87C1-411F-846D-D59D8111D9D2}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -631,167 +631,167 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A15" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A30" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A31" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A32" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A36" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A37" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A38" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.6">
